--- a/12.xlsx
+++ b/12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C1ST3RN\PycharmProjects\pythonProject\PyQtForMI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D458E9C-F564-479E-ACF7-39BE7E972034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7894B44B-2ABF-4719-8A33-5A3A76EEA8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -340,7 +340,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C9" sqref="C1:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/12.xlsx
+++ b/12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C1ST3RN\PycharmProjects\pythonProject\PyQtForMI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7894B44B-2ABF-4719-8A33-5A3A76EEA8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA89B47-7D4B-43CD-B190-431BDF674758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -337,68 +337,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C1:C9"/>
+      <selection activeCell="C1" sqref="C1:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>12</v>
       </c>
       <c r="B1">
         <v>23432</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>12</v>
       </c>
       <c r="B2">
         <v>654</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>12</v>
       </c>
       <c r="B3">
         <v>6546</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
         <v>5235432</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>21</v>
       </c>
       <c r="B5">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6">
         <v>235</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7">
         <v>2354</v>
+      </c>
+      <c r="C7">
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/12.xlsx
+++ b/12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C1ST3RN\PycharmProjects\pythonProject\PyQtForMI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA89B47-7D4B-43CD-B190-431BDF674758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9058D1-6305-4B10-B3FF-877812223CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -337,89 +337,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C7"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>12</v>
       </c>
       <c r="B1">
         <v>23432</v>
       </c>
-      <c r="C1">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>12</v>
       </c>
       <c r="B2">
         <v>654</v>
       </c>
-      <c r="C2">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>12</v>
       </c>
       <c r="B3">
         <v>6546</v>
       </c>
-      <c r="C3">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
         <v>5235432</v>
       </c>
-      <c r="C4">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>21</v>
       </c>
       <c r="B5">
         <v>24</v>
       </c>
-      <c r="C5">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6">
         <v>235</v>
       </c>
-      <c r="C6">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7">
         <v>2354</v>
-      </c>
-      <c r="C7">
-        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/12.xlsx
+++ b/12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C1ST3RN\PycharmProjects\pythonProject\PyQtForMI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9058D1-6305-4B10-B3FF-877812223CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5755F6-13C7-42DA-9C60-00E100FE0F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -337,68 +337,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>12</v>
       </c>
       <c r="B1">
         <v>23432</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>12</v>
       </c>
       <c r="B2">
         <v>654</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>12</v>
       </c>
       <c r="B3">
         <v>6546</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
         <v>5235432</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>12421</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>21</v>
       </c>
       <c r="B5">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6">
         <v>235</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>4643</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7">
         <v>2354</v>
+      </c>
+      <c r="C7">
+        <v>756</v>
       </c>
     </row>
   </sheetData>
